--- a/assets/Tension-Courant-Conso.xlsx
+++ b/assets/Tension-Courant-Conso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ahmoa-my.sharepoint.com/personal/francois_boldoduck_ahmoa_fr/Documents/!!! Robotique !!!/SW_MSE-6/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{545B8492-7EF0-40D3-885F-CC528321BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B88BA0E-948E-456A-9964-74CDB2F6605D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{545B8492-7EF0-40D3-885F-CC528321BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD049AE-6401-47D8-A549-773B1F2BC76A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{B9E1BFC1-3492-4D16-AEAD-E77FC4B3AAF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9E1BFC1-3492-4D16-AEAD-E77FC4B3AAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>https://fr.aliexpress.com/item/10000309654821.html</t>
   </si>
@@ -263,14 +263,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -414,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,25 +560,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA97F798-7583-4662-80CA-90D8B1AD0B6D}">
-  <dimension ref="B5:H24"/>
+  <dimension ref="B5:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="128" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -602,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,11 +606,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E9" si="0">C6*(D6/1000)</f>
-        <v>1.2000000000000002</v>
+        <f t="shared" ref="E6:E7" si="0">C6*(D6/1000)</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>28</v>
@@ -626,7 +622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -634,11 +630,11 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
@@ -650,315 +646,243 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>200</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
+        <f t="shared" ref="E9:E13" si="1">C9*(D9/1000)</f>
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>4</v>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>150</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>36</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E16" si="1">C11*(D11/1000)</f>
-        <v>0.18</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>36</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>2.2000000000000002</v>
+        <v>399.99999999999994</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
+        <f>C15*(D15/1000)</f>
+        <v>2.4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f>C16*(D16/1000)</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>550</v>
+      </c>
+      <c r="E17" s="2">
+        <f>C17*(D17/1000)</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
-        <v>399.99999999999994</v>
-      </c>
-      <c r="E18" s="2">
-        <f>C18*(D18/1000)</f>
-        <v>2.4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2">
-        <v>550</v>
-      </c>
-      <c r="E19" s="2">
-        <f>C19*(D19/1000)</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>550</v>
-      </c>
-      <c r="E20" s="2">
-        <f>C20*(D20/1000)</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="9" t="str">
-        <f>ROUND(SUM(D6:D20)/1000,2)&amp;" A"</f>
-        <v>2,56 A</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f>ROUND(SUM(E6:E20),2)&amp;" W"</f>
-        <v>21,68 W</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="D19" s="9" t="str">
+        <f>ROUND(SUM(D6:D17)/1000,2)&amp;" A"</f>
+        <v>2,52 A</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f>ROUND(SUM(E6:E17),2)&amp;" W"</f>
+        <v>21,5 W</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="12" t="str">
-        <f>ROUND(SUM(D11:D18)/1000,2)&amp;" A"</f>
-        <v>0,66 A</v>
-      </c>
-      <c r="E24" s="12" t="str">
+      <c r="D21" s="12" t="str">
+        <f>ROUND(SUM(D9:D15)/1000,2)&amp;" A"</f>
+        <v>0,62 A</v>
+      </c>
+      <c r="E21" s="12" t="str">
         <f>5*0.66&amp;" W"</f>
         <v>3,3 W</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -966,17 +890,14 @@
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{20D22CB2-BB97-4EE3-B06F-5D9EB7E63595}"/>
     <hyperlink ref="G7" r:id="rId2" xr:uid="{F4DD57CF-7385-45C6-8584-E78F1570C993}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{768A4FCA-BB92-4C89-A63D-FE4BD137323C}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{FBE51E7A-58DB-4CDB-87FE-0478A8E7D4E6}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{55D2F0D1-0C4B-4F6E-A669-9240354E6E35}"/>
-    <hyperlink ref="G12" r:id="rId6" xr:uid="{BF665A42-EE12-4D8F-BF8B-C57D075BDDA7}"/>
-    <hyperlink ref="G14" r:id="rId7" location="nav-description" display="https://fr.aliexpress.com/item/32477198302.html?spm=a2g0o.productlist.main.25.16fb4b01ZatePN&amp;algo_pvid=816342eb-511b-46d6-881c-3313cb42eb1d&amp;algo_exp_id=816342eb-511b-46d6-881c-3313cb42eb1d-12&amp;pdp_npi=4%40dis%21EUR%210.67%210.61%21%21%210.71%21%21%40211b88ee16924512104504983e0481%2112000024554661973%21sea%21RE%212529204942%21&amp;curPageLogUid=zlA7ntO5ghC9#nav-description" xr:uid="{F160864A-D055-47EA-B4BA-56D510A29610}"/>
-    <hyperlink ref="G13" r:id="rId8" display="https://fr.aliexpress.com/item/4000090521976.html?spm=a2g0o.productlist.main.49.76bc6ddeqIvOqO&amp;algo_pvid=e9625482-b61e-4ffe-8c74-5099d5136cbc&amp;aem_p4p_detail=202308190612042322308484813520007069396&amp;algo_exp_id=e9625482-b61e-4ffe-8c74-5099d5136cbc-24&amp;pdp_npi=4%40dis%21EUR%213.04%212.46%21%21%213.23%21%21%40211b88ef16924507242332698eda9b%2112000029209753875%21sea%21RE%212529204942%21&amp;curPageLogUid=eLom7TdxOw12&amp;search_p4p_id=202308190612042322308484813520007069396_5" xr:uid="{2BD6F46F-5DDD-4012-8C45-332F7C148CBB}"/>
-    <hyperlink ref="G15" r:id="rId9" location="nav-description" display="https://fr.aliexpress.com/item/32477198302.html?spm=a2g0o.productlist.main.25.16fb4b01ZatePN&amp;algo_pvid=816342eb-511b-46d6-881c-3313cb42eb1d&amp;algo_exp_id=816342eb-511b-46d6-881c-3313cb42eb1d-12&amp;pdp_npi=4%40dis%21EUR%210.67%210.61%21%21%210.71%21%21%40211b88ee16924512104504983e0481%2112000024554661973%21sea%21RE%212529204942%21&amp;curPageLogUid=zlA7ntO5ghC9#nav-description" xr:uid="{56FD0429-6317-4C22-9956-0D8ABE15EF6B}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{0E3D4A67-D111-4F9D-8141-33437F99D773}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{A8408DC5-CFD0-4311-BB99-561CBBD1CEB9}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{4F3C4409-3EE9-40CA-A2F5-BBC1918DCDE4}"/>
-    <hyperlink ref="G24" r:id="rId13" display="https://fr.aliexpress.com/item/1005005956648128.html?spm=a2g0o.productlist.main.3.7bd3546aahr5Wt&amp;algo_pvid=a922a6f7-1495-4253-8351-8a57e0b009c9&amp;algo_exp_id=a922a6f7-1495-4253-8351-8a57e0b009c9-1&amp;pdp_npi=4%40dis%21EUR%212.82%211.55%21%21%213.00%21%21%40211b88ee16924509964771273e0481%2112000035020874633%21sea%21RE%212529204942%21&amp;curPageLogUid=dBE7CFvAyWjg" xr:uid="{7A1AEF49-DD76-431D-9F17-9D878CF5AAA8}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{55D2F0D1-0C4B-4F6E-A669-9240354E6E35}"/>
+    <hyperlink ref="G11" r:id="rId4" location="nav-description" display="https://fr.aliexpress.com/item/32477198302.html?spm=a2g0o.productlist.main.25.16fb4b01ZatePN&amp;algo_pvid=816342eb-511b-46d6-881c-3313cb42eb1d&amp;algo_exp_id=816342eb-511b-46d6-881c-3313cb42eb1d-12&amp;pdp_npi=4%40dis%21EUR%210.67%210.61%21%21%210.71%21%21%40211b88ee16924512104504983e0481%2112000024554661973%21sea%21RE%212529204942%21&amp;curPageLogUid=zlA7ntO5ghC9#nav-description" xr:uid="{F160864A-D055-47EA-B4BA-56D510A29610}"/>
+    <hyperlink ref="G10" r:id="rId5" display="https://fr.aliexpress.com/item/4000090521976.html?spm=a2g0o.productlist.main.49.76bc6ddeqIvOqO&amp;algo_pvid=e9625482-b61e-4ffe-8c74-5099d5136cbc&amp;aem_p4p_detail=202308190612042322308484813520007069396&amp;algo_exp_id=e9625482-b61e-4ffe-8c74-5099d5136cbc-24&amp;pdp_npi=4%40dis%21EUR%213.04%212.46%21%21%213.23%21%21%40211b88ef16924507242332698eda9b%2112000029209753875%21sea%21RE%212529204942%21&amp;curPageLogUid=eLom7TdxOw12&amp;search_p4p_id=202308190612042322308484813520007069396_5" xr:uid="{2BD6F46F-5DDD-4012-8C45-332F7C148CBB}"/>
+    <hyperlink ref="G12" r:id="rId6" location="nav-description" display="https://fr.aliexpress.com/item/32477198302.html?spm=a2g0o.productlist.main.25.16fb4b01ZatePN&amp;algo_pvid=816342eb-511b-46d6-881c-3313cb42eb1d&amp;algo_exp_id=816342eb-511b-46d6-881c-3313cb42eb1d-12&amp;pdp_npi=4%40dis%21EUR%210.67%210.61%21%21%210.71%21%21%40211b88ee16924512104504983e0481%2112000024554661973%21sea%21RE%212529204942%21&amp;curPageLogUid=zlA7ntO5ghC9#nav-description" xr:uid="{56FD0429-6317-4C22-9956-0D8ABE15EF6B}"/>
+    <hyperlink ref="G13" r:id="rId7" xr:uid="{0E3D4A67-D111-4F9D-8141-33437F99D773}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{A8408DC5-CFD0-4311-BB99-561CBBD1CEB9}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{4F3C4409-3EE9-40CA-A2F5-BBC1918DCDE4}"/>
+    <hyperlink ref="G21" r:id="rId10" display="https://fr.aliexpress.com/item/1005005956648128.html?spm=a2g0o.productlist.main.3.7bd3546aahr5Wt&amp;algo_pvid=a922a6f7-1495-4253-8351-8a57e0b009c9&amp;algo_exp_id=a922a6f7-1495-4253-8351-8a57e0b009c9-1&amp;pdp_npi=4%40dis%21EUR%212.82%211.55%21%21%213.00%21%21%40211b88ee16924509964771273e0481%2112000035020874633%21sea%21RE%212529204942%21&amp;curPageLogUid=dBE7CFvAyWjg" xr:uid="{7A1AEF49-DD76-431D-9F17-9D878CF5AAA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
